--- a/back_testing/datos/db.xlsx
+++ b/back_testing/datos/db.xlsx
@@ -437,14 +437,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B2">
         <v>78</v>
       </c>
       <c r="C2">
-        <v>497.9500122070313</v>
+        <v>627.9400024414063</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -453,47 +453,47 @@
         <v>25.22</v>
       </c>
       <c r="G2">
-        <v>61.72583465495506</v>
+        <v>52.7761521031228</v>
       </c>
       <c r="H2">
-        <v>237069</v>
+        <v>503527</v>
       </c>
       <c r="I2">
-        <v>-183196</v>
+        <v>-615686</v>
       </c>
       <c r="J2">
-        <v>-42116.35366368353</v>
+        <v>-430543.3949849982</v>
       </c>
       <c r="K2">
-        <v>0.6916699515532215</v>
+        <v>0.8029280362911541</v>
       </c>
       <c r="L2">
-        <v>0.7492470169227033</v>
+        <v>0.5200265768552247</v>
       </c>
       <c r="M2">
-        <v>0.7241405017544859</v>
+        <v>0.3725207473611143</v>
       </c>
       <c r="N2">
-        <v>0.1478005990388276</v>
+        <v>-0.1446946395251669</v>
       </c>
       <c r="O2">
-        <v>0.1289396166718161</v>
+        <v>-0.2024224880765736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B3">
         <v>156</v>
       </c>
       <c r="C3">
-        <v>495.489990234375</v>
+        <v>625.3499755859375</v>
       </c>
       <c r="D3">
-        <v>-0.004940299050808061</v>
+        <v>-0.004124640643053179</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -502,96 +502,96 @@
         <v>14.96</v>
       </c>
       <c r="G3">
-        <v>39.52506180810355</v>
+        <v>49.86401975480145</v>
       </c>
       <c r="H3">
-        <v>185259</v>
+        <v>881422</v>
       </c>
       <c r="I3">
-        <v>-465143</v>
+        <v>-4414413</v>
       </c>
       <c r="J3">
-        <v>-402836.453239065</v>
+        <v>-4059733.736090155</v>
       </c>
       <c r="K3">
-        <v>0.7508251727847985</v>
+        <v>0.8719827189999081</v>
       </c>
       <c r="L3">
-        <v>0.5302215402882736</v>
+        <v>0.6293954208040494</v>
       </c>
       <c r="M3">
-        <v>0.4240487313531773</v>
+        <v>0.483035299331344</v>
       </c>
       <c r="N3">
-        <v>-0.007165180642865199</v>
+        <v>0.245391214182944</v>
       </c>
       <c r="O3">
-        <v>0.03241367342240683</v>
+        <v>0.2995992617753903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B4">
         <v>234</v>
       </c>
       <c r="C4">
-        <v>497.4200134277344</v>
+        <v>598.1199951171875</v>
       </c>
       <c r="D4">
-        <v>0.003895180995374892</v>
+        <v>-0.04354358604273745</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>14.96</v>
       </c>
       <c r="G4">
-        <v>57.04297524425516</v>
+        <v>59.14773153190494</v>
       </c>
       <c r="H4">
-        <v>368424</v>
+        <v>766893</v>
       </c>
       <c r="I4">
-        <v>-954557</v>
+        <v>-4920807</v>
       </c>
       <c r="J4">
-        <v>-805191.4326283417</v>
+        <v>-5217424.181199506</v>
       </c>
       <c r="K4">
-        <v>0.9196738124421543</v>
+        <v>0.58517828516962</v>
       </c>
       <c r="L4">
-        <v>0.7911094649037721</v>
+        <v>0.5847122906454743</v>
       </c>
       <c r="M4">
-        <v>0.7927379912804352</v>
+        <v>0.6695760290880023</v>
       </c>
       <c r="N4">
-        <v>0.03389965847131471</v>
+        <v>0.2105522144758565</v>
       </c>
       <c r="O4">
-        <v>-0.04838321381958114</v>
+        <v>0.1149703792980998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B5">
         <v>312</v>
       </c>
       <c r="C5">
-        <v>496.0599975585938</v>
+        <v>605.4199829101563</v>
       </c>
       <c r="D5">
-        <v>-0.002734139826358617</v>
+        <v>0.01220488840460598</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -600,96 +600,96 @@
         <v>14.96</v>
       </c>
       <c r="G5">
-        <v>52.2606068425693</v>
+        <v>49.31566895006339</v>
       </c>
       <c r="H5">
-        <v>367171</v>
+        <v>498520</v>
       </c>
       <c r="I5">
-        <v>-1584200</v>
+        <v>-4125838</v>
       </c>
       <c r="J5">
-        <v>-1368200.496011075</v>
+        <v>-3851634.683458364</v>
       </c>
       <c r="K5">
-        <v>0.5378697862436455</v>
+        <v>0.2737102417721186</v>
       </c>
       <c r="L5">
-        <v>0.497690841425546</v>
+        <v>0.3585201875651771</v>
       </c>
       <c r="M5">
-        <v>0.442526885657351</v>
+        <v>0.2918394684834735</v>
       </c>
       <c r="N5">
-        <v>0.1084793437293285</v>
+        <v>0.1477401060006045</v>
       </c>
       <c r="O5">
-        <v>0.1477887087359355</v>
+        <v>0.2478862685208713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B6">
         <v>390</v>
       </c>
       <c r="C6">
-        <v>495.7300109863281</v>
+        <v>619.3400268554688</v>
       </c>
       <c r="D6">
-        <v>-0.0006652150423127612</v>
+        <v>0.02299237609964755</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>14.96</v>
       </c>
       <c r="G6">
-        <v>49.48141113155656</v>
+        <v>48.61123793237982</v>
       </c>
       <c r="H6">
-        <v>177314</v>
+        <v>375220</v>
       </c>
       <c r="I6">
-        <v>-2128758</v>
+        <v>-4641332</v>
       </c>
       <c r="J6">
-        <v>-2034441.655378836</v>
+        <v>-4414737.70350631</v>
       </c>
       <c r="K6">
-        <v>0.6967610768367919</v>
+        <v>0.4795394645581911</v>
       </c>
       <c r="L6">
-        <v>0.6764221806372722</v>
+        <v>0.4030286216303683</v>
       </c>
       <c r="M6">
-        <v>0.5372297800676954</v>
+        <v>0.3969445109979028</v>
       </c>
       <c r="N6">
-        <v>-0.004817914464250173</v>
+        <v>0.01115057212299764</v>
       </c>
       <c r="O6">
-        <v>0.01482225438908407</v>
+        <v>0.04445736676780751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B7">
         <v>468</v>
       </c>
       <c r="C7">
-        <v>504.5499877929688</v>
+        <v>590.760009765625</v>
       </c>
       <c r="D7">
-        <v>0.0177918960143082</v>
+        <v>-0.04614592283813956</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -698,47 +698,47 @@
         <v>14.96</v>
       </c>
       <c r="G7">
-        <v>54.46432464010742</v>
+        <v>45.35134006900915</v>
       </c>
       <c r="H7">
-        <v>296299</v>
+        <v>591067</v>
       </c>
       <c r="I7">
-        <v>-1604023</v>
+        <v>-5802775</v>
       </c>
       <c r="J7">
-        <v>-1732950.608788048</v>
+        <v>-6052200.874724243</v>
       </c>
       <c r="K7">
-        <v>0.7513029398370693</v>
+        <v>0.1485922108846701</v>
       </c>
       <c r="L7">
-        <v>0.7296207084810434</v>
+        <v>0.1647949873703495</v>
       </c>
       <c r="M7">
-        <v>0.5474594164488694</v>
+        <v>0.150667561028991</v>
       </c>
       <c r="N7">
-        <v>0.0157847904653341</v>
+        <v>-0.120895802794696</v>
       </c>
       <c r="O7">
-        <v>-0.009436040287659375</v>
+        <v>-0.03916087410014328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B8">
         <v>546</v>
       </c>
       <c r="C8">
-        <v>514.489990234375</v>
+        <v>607.5700073242188</v>
       </c>
       <c r="D8">
-        <v>0.0197007287323232</v>
+        <v>0.02845486708767386</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -747,47 +747,47 @@
         <v>14.96</v>
       </c>
       <c r="G8">
-        <v>57.2740341926118</v>
+        <v>60.34089602575403</v>
       </c>
       <c r="H8">
-        <v>459831</v>
+        <v>652296</v>
       </c>
       <c r="I8">
-        <v>-1036150</v>
+        <v>-5469286</v>
       </c>
       <c r="J8">
-        <v>-849481.0993141179</v>
+        <v>-5232532.910360072</v>
       </c>
       <c r="K8">
-        <v>0.7992988236287989</v>
+        <v>0.8648704378307788</v>
       </c>
       <c r="L8">
-        <v>0.6168724011038944</v>
+        <v>0.687382161290321</v>
       </c>
       <c r="M8">
-        <v>0.4643410096100331</v>
+        <v>0.5977299960739234</v>
       </c>
       <c r="N8">
-        <v>0.05068518238748876</v>
+        <v>0.07872928239804899</v>
       </c>
       <c r="O8">
-        <v>0.05094651884139462</v>
+        <v>0.05701081176755045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B9">
         <v>624</v>
       </c>
       <c r="C9">
-        <v>523.030029296875</v>
+        <v>604.7100219726563</v>
       </c>
       <c r="D9">
-        <v>0.01659903831872334</v>
+        <v>-0.004707252361185632</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -796,96 +796,96 @@
         <v>14.96</v>
       </c>
       <c r="G9">
-        <v>63.94852089612909</v>
+        <v>50.25341883643669</v>
       </c>
       <c r="H9">
-        <v>377447</v>
+        <v>749562</v>
       </c>
       <c r="I9">
-        <v>-744641</v>
+        <v>-7496827</v>
       </c>
       <c r="J9">
-        <v>-583899.5086798411</v>
+        <v>-7034025.697610997</v>
       </c>
       <c r="K9">
-        <v>0.7932945943879501</v>
+        <v>0.2365680784039202</v>
       </c>
       <c r="L9">
-        <v>0.7655330203717958</v>
+        <v>0.291185918129878</v>
       </c>
       <c r="M9">
-        <v>0.7264072895820503</v>
+        <v>0.3656170757216839</v>
       </c>
       <c r="N9">
-        <v>0.1486860772618614</v>
+        <v>0.1060556388970957</v>
       </c>
       <c r="O9">
-        <v>0.1398912999443847</v>
+        <v>0.1441330064695277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B10">
         <v>702</v>
       </c>
       <c r="C10">
-        <v>523.3800048828125</v>
+        <v>582.4600219726563</v>
       </c>
       <c r="D10">
-        <v>0.0006691309606219331</v>
+        <v>-0.03679449519856992</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>14.96</v>
       </c>
       <c r="G10">
-        <v>55.03499915551635</v>
+        <v>57.2707655360841</v>
       </c>
       <c r="H10">
-        <v>217862</v>
+        <v>495163</v>
       </c>
       <c r="I10">
-        <v>-778965</v>
+        <v>-9075647</v>
       </c>
       <c r="J10">
-        <v>-896543.6287720058</v>
+        <v>-9353353.566904388</v>
       </c>
       <c r="K10">
-        <v>0.7069694819020582</v>
+        <v>0.3826167401875064</v>
       </c>
       <c r="L10">
-        <v>0.4232505322924053</v>
+        <v>0.1878122363503811</v>
       </c>
       <c r="M10">
-        <v>0.4546421031293105</v>
+        <v>0.1729624953034844</v>
       </c>
       <c r="N10">
-        <v>-0.006695095585596</v>
+        <v>0.004475707063411605</v>
       </c>
       <c r="O10">
-        <v>-0.006488135917214144</v>
+        <v>0.06001666316525373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B11">
         <v>780</v>
       </c>
       <c r="C11">
-        <v>525.530029296875</v>
+        <v>583.9500122070313</v>
       </c>
       <c r="D11">
-        <v>0.004107960552570011</v>
+        <v>0.002558098716078039</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -894,47 +894,47 @@
         <v>14.96</v>
       </c>
       <c r="G11">
-        <v>72.69791877577553</v>
+        <v>53.23888670656076</v>
       </c>
       <c r="H11">
-        <v>235853</v>
+        <v>894193</v>
       </c>
       <c r="I11">
-        <v>-1164582</v>
+        <v>-9317274</v>
       </c>
       <c r="J11">
-        <v>-1032731.553243002</v>
+        <v>-8772962.936866546</v>
       </c>
       <c r="K11">
-        <v>0.6130453242755546</v>
+        <v>0.2187266119625387</v>
       </c>
       <c r="L11">
-        <v>0.7196190735169538</v>
+        <v>0.5337867539943967</v>
       </c>
       <c r="M11">
-        <v>0.7740929027318</v>
+        <v>0.5832169919301738</v>
       </c>
       <c r="N11">
-        <v>0.1449026709558598</v>
+        <v>0.2704933953014743</v>
       </c>
       <c r="O11">
-        <v>0.130643787512697</v>
+        <v>0.3395973200372372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B12">
         <v>858</v>
       </c>
       <c r="C12">
-        <v>528.6400146484375</v>
+        <v>585.97998046875</v>
       </c>
       <c r="D12">
-        <v>0.005917807124596663</v>
+        <v>0.00347627060413358</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -943,47 +943,47 @@
         <v>14.96</v>
       </c>
       <c r="G12">
-        <v>50.50193817711957</v>
+        <v>30.80227278906017</v>
       </c>
       <c r="H12">
-        <v>221209</v>
+        <v>954769</v>
       </c>
       <c r="I12">
-        <v>-1010016</v>
+        <v>-7513624</v>
       </c>
       <c r="J12">
-        <v>-935577.7444166162</v>
+        <v>-7884588.865657764</v>
       </c>
       <c r="K12">
-        <v>0.9281908906730697</v>
+        <v>0.04514383015127461</v>
       </c>
       <c r="L12">
-        <v>0.7760311182452532</v>
+        <v>0.1620396457105031</v>
       </c>
       <c r="M12">
-        <v>0.5777856326584599</v>
+        <v>0.1902784670364404</v>
       </c>
       <c r="N12">
-        <v>0.03790520263822206</v>
+        <v>-0.4480960331473938</v>
       </c>
       <c r="O12">
-        <v>0.02323539824248516</v>
+        <v>-0.4124752405757555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B13">
         <v>936</v>
       </c>
       <c r="C13">
-        <v>521.5700073242188</v>
+        <v>596.239990234375</v>
       </c>
       <c r="D13">
-        <v>-0.01337395416221099</v>
+        <v>0.01750914725349073</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -992,31 +992,31 @@
         <v>14.96</v>
       </c>
       <c r="G13">
-        <v>26.49184610936814</v>
+        <v>56.22084701957432</v>
       </c>
       <c r="H13">
-        <v>578196</v>
+        <v>1256629</v>
       </c>
       <c r="I13">
-        <v>-4035904</v>
+        <v>-656275</v>
       </c>
       <c r="J13">
-        <v>-3704956.281945721</v>
+        <v>-1374687.257485297</v>
       </c>
       <c r="K13">
-        <v>0.5670120390955996</v>
+        <v>0.3701078964619173</v>
       </c>
       <c r="L13">
-        <v>0.502072499852701</v>
+        <v>0.2029094197974395</v>
       </c>
       <c r="M13">
-        <v>0.3841216050211483</v>
+        <v>0.244931968349307</v>
       </c>
       <c r="N13">
-        <v>-0.08286962732565462</v>
+        <v>0.04600926012923168</v>
       </c>
       <c r="O13">
-        <v>-0.05623382697874932</v>
+        <v>0.0466253185614085</v>
       </c>
     </row>
   </sheetData>
